--- a/metadata/SSD-NHANES-2017-2018-100.xlsx
+++ b/metadata/SSD-NHANES-2017-2018-100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA8413-1509-C240-B9BB-9C2841A04A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414FAD25-77B5-9249-9995-C7892C738E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="660" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
+    <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
   </bookViews>
   <sheets>
     <sheet name="SSD" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SOC-NHANES-2017-2018-RXQ_RX-T" sheetId="3" r:id="rId4"/>
     <sheet name="SOC-NHANES-2017-2018-RXQ_RX-P" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,18 +88,12 @@
     <t>source</t>
   </si>
   <si>
-    <t>hhear-kb:STD-NHANES-2017-2018</t>
-  </si>
-  <si>
     <t>hasco:Study</t>
   </si>
   <si>
     <t>#SOC-NHANES-2017-2018-SUBJECTS</t>
   </si>
   <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-SUBJECTS</t>
-  </si>
-  <si>
     <t>hasco:SubjectGroup</t>
   </si>
   <si>
@@ -112,27 +106,18 @@
     <t>Subject Population</t>
   </si>
   <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-FAMILY</t>
-  </si>
-  <si>
     <t>??family</t>
   </si>
   <si>
     <t>Family</t>
   </si>
   <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-HH</t>
-  </si>
-  <si>
     <t>??hh</t>
   </si>
   <si>
     <t>Household</t>
   </si>
   <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-HH_REF_PERSON</t>
-  </si>
-  <si>
     <t>??hhref</t>
   </si>
   <si>
@@ -736,12 +721,6 @@
     <t>??usagep</t>
   </si>
   <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-RXQ_RX-T</t>
-  </si>
-  <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-RXQ_RX-P</t>
-  </si>
-  <si>
     <t>#SOC-NHANES-2017-2018-RXQ_RX-T</t>
   </si>
   <si>
@@ -751,9 +730,6 @@
     <t>hasco:SampleCollection</t>
   </si>
   <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-RXQ_RX-E</t>
-  </si>
-  <si>
     <t>??exposure</t>
   </si>
   <si>
@@ -1277,6 +1253,30 @@
   </si>
   <si>
     <t>nhanes:00057</t>
+  </si>
+  <si>
+    <t>nhanes-kb:STD-NHANES-2017-2018</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-SUBJECTS</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-RXQ_RX-E</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-RXQ_RX-T</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-RXQ_RX-P</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-FAMILY</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-HH</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-HH_REF_PERSON</t>
   </si>
 </sst>
 </file>
@@ -1636,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B088F3-3515-904B-9B51-EE2323ADDBE3}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,8 +1650,8 @@
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1708,174 +1708,174 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -1900,16 +1900,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1917,7 +1917,7 @@
         <v>93703</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,7 +1925,7 @@
         <v>93704</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1933,7 +1933,7 @@
         <v>93705</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>93706</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1949,7 +1949,7 @@
         <v>93707</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>93708</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1965,7 +1965,7 @@
         <v>93709</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1973,7 +1973,7 @@
         <v>93710</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>93711</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1989,7 +1989,7 @@
         <v>93712</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1997,7 +1997,7 @@
         <v>93713</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>93714</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>93715</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>93716</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>93717</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2037,7 +2037,7 @@
         <v>93718</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>93719</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2053,7 +2053,7 @@
         <v>93720</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2061,7 +2061,7 @@
         <v>93721</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>93722</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
         <v>93723</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>93724</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2093,7 +2093,7 @@
         <v>93725</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>93726</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2109,7 +2109,7 @@
         <v>93727</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
         <v>93728</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2125,7 +2125,7 @@
         <v>93729</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2133,7 +2133,7 @@
         <v>93730</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>93731</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>93732</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
         <v>93733</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>93734</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2173,7 +2173,7 @@
         <v>93735</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2181,7 +2181,7 @@
         <v>93736</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
         <v>93737</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -2197,7 +2197,7 @@
         <v>93738</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>93739</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2213,7 +2213,7 @@
         <v>93740</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>93741</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
         <v>93742</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2237,7 +2237,7 @@
         <v>93743</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>93744</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>93745</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>93746</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2269,7 +2269,7 @@
         <v>93747</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
         <v>93748</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2285,7 +2285,7 @@
         <v>93749</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
         <v>93750</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
         <v>93751</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2309,7 +2309,7 @@
         <v>93752</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2317,7 +2317,7 @@
         <v>93753</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2325,7 +2325,7 @@
         <v>93754</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
         <v>93755</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
         <v>93756</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
         <v>93757</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>93758</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -2365,7 +2365,7 @@
         <v>93759</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2373,7 +2373,7 @@
         <v>93760</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>93761</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2389,7 +2389,7 @@
         <v>93762</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2397,7 +2397,7 @@
         <v>93763</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <v>93764</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -2413,7 +2413,7 @@
         <v>93765</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -2421,7 +2421,7 @@
         <v>93766</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2429,7 +2429,7 @@
         <v>93767</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>93768</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -2445,7 +2445,7 @@
         <v>93769</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2453,7 +2453,7 @@
         <v>93770</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>93771</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2469,7 +2469,7 @@
         <v>93772</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -2477,7 +2477,7 @@
         <v>93773</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -2485,7 +2485,7 @@
         <v>93774</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>93775</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
         <v>93776</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -2509,7 +2509,7 @@
         <v>93777</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>93778</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -2525,7 +2525,7 @@
         <v>93779</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -2533,7 +2533,7 @@
         <v>93780</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2541,7 +2541,7 @@
         <v>93781</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
         <v>93782</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -2557,7 +2557,7 @@
         <v>93783</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -2565,7 +2565,7 @@
         <v>93784</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -2573,7 +2573,7 @@
         <v>93785</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -2581,7 +2581,7 @@
         <v>93786</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -2589,7 +2589,7 @@
         <v>93787</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -2597,7 +2597,7 @@
         <v>93788</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -2605,7 +2605,7 @@
         <v>93789</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -2613,7 +2613,7 @@
         <v>93790</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>93791</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>93792</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
         <v>93793</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>93794</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -2653,7 +2653,7 @@
         <v>93795</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
         <v>93796</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -2669,7 +2669,7 @@
         <v>93797</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -2677,7 +2677,7 @@
         <v>93798</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>93799</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2693,7 +2693,7 @@
         <v>93800</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>93801</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
         <v>93802</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2733,24 +2733,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C2">
         <v>93705</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C3">
         <v>93705</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C4">
         <v>93705</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C5">
         <v>93708</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C6">
         <v>93708</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C7">
         <v>93708</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C8">
         <v>93709</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C9">
         <v>93709</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C10">
         <v>93709</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C11">
         <v>93709</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C12">
         <v>93713</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C13">
         <v>93714</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C14">
         <v>93715</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C15">
         <v>93715</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C16">
         <v>93715</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C17">
         <v>93715</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C18">
         <v>93715</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C19">
         <v>93715</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C20">
         <v>93715</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C21">
         <v>93715</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C22">
         <v>93718</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C23">
         <v>93719</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C24">
         <v>93719</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C25">
         <v>93720</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C26">
         <v>93722</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C27">
         <v>93722</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C28">
         <v>93722</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C29">
         <v>93722</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C30">
         <v>93722</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C31">
         <v>93722</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C32">
         <v>93722</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C33">
         <v>93722</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C34">
         <v>93722</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C35">
         <v>93722</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C36">
         <v>93726</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C37">
         <v>93727</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C38">
         <v>93727</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C39">
         <v>93728</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C40">
         <v>93728</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C41">
         <v>93728</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C42">
         <v>93728</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C43">
         <v>93728</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C44">
         <v>93728</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C45">
         <v>93731</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C46">
         <v>93732</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C47">
         <v>93732</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C48">
         <v>93732</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C49">
         <v>93735</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B50" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C50">
         <v>93735</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C51">
         <v>93740</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C52">
         <v>93740</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B53" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C53">
         <v>93740</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C54">
         <v>93740</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C55">
         <v>93740</v>
@@ -3341,10 +3341,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C56">
         <v>93740</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B57" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C57">
         <v>93740</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C58">
         <v>93740</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C59">
         <v>93740</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C60">
         <v>93742</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C61">
         <v>93742</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B62" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C62">
         <v>93742</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B63" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C63">
         <v>93742</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B64" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C64">
         <v>93742</v>
@@ -3440,10 +3440,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C65">
         <v>93742</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B66" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C66">
         <v>93742</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C67">
         <v>93742</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B68" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C68">
         <v>93742</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B69" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C69">
         <v>93746</v>
@@ -3495,10 +3495,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C70">
         <v>93750</v>
@@ -3506,10 +3506,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C71">
         <v>93750</v>
@@ -3517,10 +3517,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C72">
         <v>93750</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B73" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C73">
         <v>93750</v>
@@ -3539,10 +3539,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B74" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C74">
         <v>93754</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C75">
         <v>93754</v>
@@ -3561,10 +3561,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C76">
         <v>93754</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C77">
         <v>93754</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B78" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C78">
         <v>93754</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B79" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C79">
         <v>93754</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B80" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C80">
         <v>93754</v>
@@ -3616,10 +3616,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B81" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C81">
         <v>93755</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B82" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C82">
         <v>93758</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C83">
         <v>93758</v>
@@ -3649,10 +3649,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C84">
         <v>93758</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C85">
         <v>93759</v>
@@ -3671,10 +3671,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C86">
         <v>93759</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C87">
         <v>93759</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C88">
         <v>93759</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C89">
         <v>93759</v>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C90">
         <v>93759</v>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C91">
         <v>93759</v>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C92">
         <v>93759</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C93">
         <v>93759</v>
@@ -3759,10 +3759,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C94">
         <v>93759</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C95">
         <v>93760</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C96">
         <v>93761</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C97">
         <v>93761</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C98">
         <v>93761</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C99">
         <v>93761</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C100">
         <v>93762</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C101">
         <v>93762</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C102">
         <v>93762</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C103">
         <v>93763</v>
@@ -3869,10 +3869,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C104">
         <v>93763</v>
@@ -3880,10 +3880,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C105">
         <v>93767</v>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C106">
         <v>93767</v>
@@ -3902,10 +3902,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C107">
         <v>93767</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C108">
         <v>93767</v>
@@ -3924,10 +3924,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C109">
         <v>93767</v>
@@ -3935,10 +3935,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C110">
         <v>93767</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C111">
         <v>93767</v>
@@ -3957,10 +3957,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C112">
         <v>93767</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C113">
         <v>93768</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B114" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C114">
         <v>93768</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C115">
         <v>93770</v>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B116" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C116">
         <v>93770</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B117" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C117">
         <v>93770</v>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C118">
         <v>93770</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C119">
         <v>93772</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C120">
         <v>93772</v>
@@ -4056,10 +4056,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B121" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C121">
         <v>93772</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B122" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C122">
         <v>93772</v>
@@ -4078,10 +4078,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B123" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C123">
         <v>93772</v>
@@ -4089,10 +4089,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B124" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C124">
         <v>93772</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C125">
         <v>93772</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C126">
         <v>93772</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B127" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C127">
         <v>93772</v>
@@ -4133,10 +4133,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B128" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C128">
         <v>93773</v>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C129">
         <v>93773</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C130">
         <v>93774</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C131">
         <v>93776</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C132">
         <v>93776</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C133">
         <v>93777</v>
@@ -4199,10 +4199,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C134">
         <v>93780</v>
@@ -4210,10 +4210,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B135" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C135">
         <v>93780</v>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B136" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C136">
         <v>93780</v>
@@ -4232,10 +4232,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B137" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C137">
         <v>93780</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B138" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C138">
         <v>93780</v>
@@ -4254,10 +4254,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B139" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C139">
         <v>93780</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B140" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C140">
         <v>93780</v>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B141" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C141">
         <v>93785</v>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B142" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C142">
         <v>93785</v>
@@ -4298,10 +4298,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B143" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C143">
         <v>93785</v>
@@ -4309,10 +4309,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B144" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C144">
         <v>93785</v>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C145">
         <v>93785</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B146" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C146">
         <v>93785</v>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B147" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C147">
         <v>93786</v>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B148" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C148">
         <v>93787</v>
@@ -4364,10 +4364,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B149" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C149">
         <v>93788</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B150" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C150">
         <v>93788</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B151" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C151">
         <v>93788</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C152">
         <v>93788</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B153" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C153">
         <v>93788</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B154" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C154">
         <v>93788</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B155" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C155">
         <v>93788</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B156" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C156">
         <v>93789</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B157" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C157">
         <v>93792</v>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B158" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C158">
         <v>93792</v>
@@ -4474,10 +4474,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B159" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C159">
         <v>93794</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B160" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C160">
         <v>93794</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B161" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C161">
         <v>93796</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B162" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C162">
         <v>93796</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B163" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C163">
         <v>93797</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B164" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C164">
         <v>93797</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B165" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C165">
         <v>93798</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B166" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C166">
         <v>93800</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B167" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C167">
         <v>93800</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B168" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C168">
         <v>93800</v>
@@ -4584,10 +4584,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B169" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C169">
         <v>93801</v>
@@ -4595,10 +4595,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B170" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C170">
         <v>93801</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B171" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C171">
         <v>93801</v>
@@ -4638,24 +4638,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>93705</v>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>93705</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>93705</v>
@@ -4685,10 +4685,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>93708</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>93708</v>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>93708</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>93709</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>93709</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>93709</v>
@@ -4751,10 +4751,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>93709</v>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>93709</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>93709</v>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>93713</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>93714</v>
@@ -4806,10 +4806,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>93715</v>
@@ -4817,10 +4817,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>93715</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>93715</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>93715</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>93715</v>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>93715</v>
@@ -4872,10 +4872,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>93715</v>
@@ -4883,10 +4883,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>93715</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>93715</v>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>93715</v>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>93718</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>93719</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>93719</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>93720</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>93722</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>93722</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>93722</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>93722</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>93722</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>93722</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>93722</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>93722</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>93722</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>93722</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>93726</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>93727</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>93727</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>93728</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C44">
         <v>93728</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>93728</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <v>93728</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>93728</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>93728</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>93731</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C50">
         <v>93732</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>93732</v>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>93732</v>
@@ -5213,10 +5213,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C53">
         <v>93735</v>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <v>93735</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <v>93740</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C56">
         <v>93740</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C57">
         <v>93740</v>
@@ -5268,10 +5268,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C58">
         <v>93740</v>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C59">
         <v>93740</v>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C60">
         <v>93740</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C61">
         <v>93740</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C62">
         <v>93740</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>93740</v>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>93740</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>93740</v>
@@ -5356,10 +5356,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>93740</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>93742</v>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C68">
         <v>93742</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>93742</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>93742</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>93742</v>
@@ -5422,10 +5422,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C72">
         <v>93742</v>
@@ -5433,10 +5433,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C73">
         <v>93742</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C74">
         <v>93742</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C75">
         <v>93742</v>
@@ -5466,10 +5466,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C76">
         <v>93742</v>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C77">
         <v>93742</v>
@@ -5488,10 +5488,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C78">
         <v>93746</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C79">
         <v>93750</v>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C80">
         <v>93750</v>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C81">
         <v>93750</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C82">
         <v>93750</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C83">
         <v>93754</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C84">
         <v>93754</v>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C85">
         <v>93754</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C86">
         <v>93754</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C87">
         <v>93754</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C88">
         <v>93755</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <v>93758</v>
@@ -5620,10 +5620,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C90">
         <v>93758</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>93758</v>
@@ -5642,10 +5642,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <v>93759</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <v>93759</v>
@@ -5664,10 +5664,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>93759</v>
@@ -5675,10 +5675,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C95">
         <v>93759</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>93759</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C97">
         <v>93759</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C98">
         <v>93759</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C99">
         <v>93759</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C100">
         <v>93759</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <v>93759</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C102">
         <v>93760</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C103">
         <v>93760</v>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C104">
         <v>93761</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C105">
         <v>93761</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C106">
         <v>93761</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C107">
         <v>93761</v>
@@ -5818,10 +5818,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C108">
         <v>93762</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C109">
         <v>93762</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C110">
         <v>93762</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C111">
         <v>93763</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C112">
         <v>93763</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C113">
         <v>93767</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C114">
         <v>93767</v>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C115">
         <v>93767</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C116">
         <v>93767</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C117">
         <v>93767</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C118">
         <v>93767</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C119">
         <v>93767</v>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C120">
         <v>93767</v>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C121">
         <v>93767</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C122">
         <v>93768</v>
@@ -5983,10 +5983,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C123">
         <v>93768</v>
@@ -5994,10 +5994,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C124">
         <v>93770</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C125">
         <v>93770</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C126">
         <v>93770</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C127">
         <v>93770</v>
@@ -6038,10 +6038,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C128">
         <v>93772</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C129">
         <v>93772</v>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C130">
         <v>93772</v>
@@ -6071,10 +6071,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C131">
         <v>93772</v>
@@ -6082,10 +6082,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C132">
         <v>93772</v>
@@ -6093,10 +6093,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C133">
         <v>93772</v>
@@ -6104,10 +6104,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C134">
         <v>93772</v>
@@ -6115,10 +6115,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C135">
         <v>93772</v>
@@ -6126,10 +6126,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C136">
         <v>93772</v>
@@ -6137,10 +6137,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C137">
         <v>93773</v>
@@ -6148,10 +6148,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C138">
         <v>93773</v>
@@ -6159,10 +6159,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C139">
         <v>93774</v>
@@ -6170,10 +6170,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C140">
         <v>93776</v>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C141">
         <v>93776</v>
@@ -6192,10 +6192,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C142">
         <v>93777</v>
@@ -6203,10 +6203,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B143" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C143">
         <v>93780</v>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C144">
         <v>93780</v>
@@ -6225,10 +6225,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C145">
         <v>93780</v>
@@ -6236,10 +6236,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C146">
         <v>93780</v>
@@ -6247,10 +6247,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C147">
         <v>93780</v>
@@ -6258,10 +6258,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C148">
         <v>93780</v>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B149" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C149">
         <v>93780</v>
@@ -6280,10 +6280,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C150">
         <v>93785</v>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C151">
         <v>93785</v>
@@ -6302,10 +6302,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C152">
         <v>93785</v>
@@ -6313,10 +6313,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C153">
         <v>93785</v>
@@ -6324,10 +6324,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C154">
         <v>93785</v>
@@ -6335,10 +6335,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C155">
         <v>93785</v>
@@ -6346,10 +6346,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C156">
         <v>93786</v>
@@ -6357,10 +6357,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C157">
         <v>93787</v>
@@ -6368,10 +6368,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C158">
         <v>93788</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C159">
         <v>93788</v>
@@ -6390,10 +6390,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C160">
         <v>93788</v>
@@ -6401,10 +6401,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C161">
         <v>93788</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C162">
         <v>93788</v>
@@ -6423,10 +6423,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C163">
         <v>93788</v>
@@ -6434,10 +6434,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C164">
         <v>93788</v>
@@ -6445,10 +6445,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C165">
         <v>93789</v>
@@ -6456,10 +6456,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C166">
         <v>93792</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B167" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C167">
         <v>93792</v>
@@ -6478,10 +6478,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C168">
         <v>93792</v>
@@ -6489,10 +6489,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C169">
         <v>93792</v>
@@ -6500,10 +6500,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B170" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C170">
         <v>93794</v>
@@ -6511,10 +6511,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C171">
         <v>93794</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C172">
         <v>93796</v>
@@ -6533,10 +6533,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C173">
         <v>93796</v>
@@ -6544,10 +6544,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C174">
         <v>93797</v>
@@ -6555,10 +6555,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C175">
         <v>93797</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C176">
         <v>93797</v>
@@ -6577,10 +6577,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C177">
         <v>93798</v>
@@ -6588,10 +6588,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C178">
         <v>93800</v>
@@ -6599,10 +6599,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C179">
         <v>93800</v>
@@ -6610,10 +6610,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C180">
         <v>93800</v>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C181">
         <v>93801</v>
@@ -6632,10 +6632,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C182">
         <v>93801</v>
@@ -6643,10 +6643,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C183">
         <v>93801</v>
@@ -6675,24 +6675,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
         <v>224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>229</v>
       </c>
       <c r="C2">
         <v>93732</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C3">
         <v>93742</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C4">
         <v>93754</v>
@@ -6722,10 +6722,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C5">
         <v>93754</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C6">
         <v>93754</v>

--- a/metadata/SSD-NHANES-2017-2018-100.xlsx
+++ b/metadata/SSD-NHANES-2017-2018-100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C96DB7C-ADC0-6146-8D7B-E9FA640AD434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB401B-EFDA-C843-A5A5-D3A95C0DBD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25820" yWindow="-19720" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
+    <workbookView xWindow="-3500" yWindow="-21940" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
   </bookViews>
   <sheets>
     <sheet name="SSD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
   <si>
     <t>sheet</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>nhanes-kb:SOC-NHANES-2017-2018-HH_REF_PERSON</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-BLOOD</t>
+  </si>
+  <si>
+    <t>??blood</t>
+  </si>
+  <si>
+    <t>Blood Sample</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-URINE</t>
+  </si>
+  <si>
+    <t>??urine</t>
+  </si>
+  <si>
+    <t>Urine Sample</t>
   </si>
 </sst>
 </file>
@@ -527,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B088F3-3515-904B-9B51-EE2323ADDBE3}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="F4:G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -735,6 +753,40 @@
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -745,7 +797,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/metadata/SSD-NHANES-2017-2018-100.xlsx
+++ b/metadata/SSD-NHANES-2017-2018-100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB401B-EFDA-C843-A5A5-D3A95C0DBD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0A3FA-2C95-9645-BE59-95D400835C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3500" yWindow="-21940" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
+    <workbookView xWindow="16240" yWindow="-18360" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
   </bookViews>
   <sheets>
     <sheet name="SSD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="56">
   <si>
     <t>sheet</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Urine Sample</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-SERUM</t>
+  </si>
+  <si>
+    <t>??serum</t>
+  </si>
+  <si>
+    <t>Serum Sample</t>
   </si>
 </sst>
 </file>
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B088F3-3515-904B-9B51-EE2323ADDBE3}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,18 +781,35 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>39</v>
       </c>
       <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
         <v>40</v>
       </c>
     </row>
